--- a/block_statistics/experiments/matrices.xlsx
+++ b/block_statistics/experiments/matrices.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Google Drive\Manuscripts\Block Iterators for Sparse Matrices\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fedora.virtual\langr\projects\abhsf\block_statistics\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8250" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="real unsymmetric" sheetId="1" r:id="rId1"/>
@@ -976,7 +976,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -989,6 +989,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1031,12 +1039,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1322,7 +1333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A73" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2232,7 +2243,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2448,7 +2461,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>151</v>
       </c>
@@ -2456,7 +2469,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>169</v>
       </c>
@@ -2464,7 +2477,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>143</v>
       </c>
@@ -2472,7 +2485,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>143</v>
       </c>
@@ -2480,7 +2493,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>143</v>
       </c>
@@ -2488,7 +2501,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>143</v>
       </c>
@@ -2496,7 +2509,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>143</v>
       </c>
@@ -2504,7 +2517,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>143</v>
       </c>
@@ -2512,7 +2525,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>143</v>
       </c>
@@ -2520,7 +2533,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>143</v>
       </c>
@@ -2528,7 +2541,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>143</v>
       </c>
@@ -2536,7 +2549,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>160</v>
       </c>
@@ -2544,7 +2557,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>143</v>
       </c>
@@ -2552,7 +2565,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>143</v>
       </c>
@@ -2560,7 +2573,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>143</v>
       </c>
@@ -2568,7 +2581,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>143</v>
       </c>
@@ -2576,7 +2589,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>143</v>
       </c>
@@ -2584,7 +2597,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>143</v>
       </c>
@@ -2592,7 +2605,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>187</v>
       </c>
@@ -2608,7 +2621,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>187</v>
       </c>
@@ -2616,7 +2629,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>187</v>
       </c>
@@ -2624,7 +2637,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>187</v>
       </c>
@@ -2632,7 +2645,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>194</v>
       </c>
@@ -2640,7 +2653,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>196</v>
       </c>
@@ -2648,7 +2661,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>198</v>
       </c>
@@ -2672,7 +2685,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>203</v>
       </c>
@@ -2688,7 +2701,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>187</v>
       </c>
@@ -2704,7 +2717,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>160</v>
       </c>
@@ -2720,7 +2733,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,7 +2741,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -2736,7 +2749,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>198</v>
       </c>
@@ -2744,7 +2757,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>187</v>
       </c>
@@ -2760,7 +2773,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>194</v>
       </c>
@@ -2768,7 +2781,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>194</v>
       </c>
@@ -2784,7 +2797,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>160</v>
       </c>
@@ -2792,7 +2805,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>221</v>
       </c>
@@ -2800,7 +2813,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>160</v>
       </c>
@@ -2816,7 +2829,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>198</v>
       </c>
@@ -2824,7 +2837,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>158</v>
       </c>
@@ -2848,7 +2861,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>52</v>
       </c>
@@ -2856,7 +2869,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>12</v>
       </c>
@@ -2872,7 +2885,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>198</v>
       </c>
@@ -2888,7 +2901,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>198</v>
       </c>
@@ -2904,7 +2917,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>158</v>
       </c>
@@ -2912,7 +2925,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>200</v>
       </c>
@@ -2936,7 +2949,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>187</v>
       </c>
@@ -2944,7 +2957,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>160</v>
       </c>
@@ -2952,7 +2965,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>160</v>
       </c>
@@ -2960,7 +2973,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>244</v>
       </c>
@@ -2968,7 +2981,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>12</v>
       </c>
@@ -2984,7 +2997,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>158</v>
       </c>
@@ -2992,7 +3005,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>158</v>
       </c>
@@ -3000,7 +3013,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>158</v>
       </c>
@@ -3008,7 +3021,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>12</v>
       </c>
@@ -3016,7 +3029,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>160</v>
       </c>
@@ -3032,7 +3045,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>196</v>
       </c>
@@ -3056,7 +3069,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>158</v>
       </c>
@@ -3064,7 +3077,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>259</v>
       </c>
@@ -3072,7 +3085,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>259</v>
       </c>
@@ -3080,7 +3093,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>221</v>
       </c>
@@ -3088,7 +3101,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>160</v>
       </c>
@@ -3104,7 +3117,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>198</v>
       </c>
@@ -3120,7 +3133,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>12</v>
       </c>
@@ -3136,7 +3149,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>160</v>
       </c>
@@ -3152,7 +3165,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>187</v>
       </c>
@@ -3160,7 +3173,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>187</v>
       </c>
@@ -3168,7 +3181,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>160</v>
       </c>
@@ -3184,7 +3197,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>276</v>
       </c>
@@ -3192,7 +3205,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>12</v>
       </c>
@@ -3240,7 +3253,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>12</v>
       </c>
@@ -3264,7 +3277,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>12</v>
       </c>
@@ -3272,7 +3285,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>12</v>
       </c>
@@ -3312,7 +3325,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>209</v>
       </c>
@@ -3320,7 +3333,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>276</v>
       </c>
@@ -3344,7 +3357,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>158</v>
       </c>
@@ -3352,7 +3365,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>158</v>
       </c>
@@ -3368,7 +3381,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>276</v>
       </c>
@@ -3376,7 +3389,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>209</v>
       </c>
@@ -3384,7 +3397,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>304</v>
       </c>
@@ -3392,7 +3405,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>304</v>
       </c>
@@ -3400,7 +3413,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>304</v>
       </c>
@@ -3408,7 +3421,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>304</v>
       </c>
@@ -3416,7 +3429,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>304</v>
       </c>
@@ -3424,7 +3437,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>304</v>
       </c>
@@ -3440,7 +3453,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>312</v>
       </c>
@@ -3448,8 +3461,8 @@
         <v>313</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -3612,5 +3625,6 @@
     <hyperlink ref="B152" r:id="rId152" display="http://www.cise.ufl.edu/research/sparse/matrices/GHS_indef/exdata_1.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId153"/>
 </worksheet>
 </file>